--- a/Heyday Group/35293/matrix_overall_only.xlsx
+++ b/Heyday Group/35293/matrix_overall_only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Heyday Group\35293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FDBA1-6C16-49E0-88C6-325D2C6B04AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F22089-DBD3-44F1-BA6A-D77AF7006794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="525" windowWidth="28890" windowHeight="18450" xr2:uid="{A296D059-13A9-4B66-B46C-C230B4233571}"/>
+    <workbookView xWindow="1230" yWindow="240" windowWidth="28890" windowHeight="18450" xr2:uid="{A296D059-13A9-4B66-B46C-C230B4233571}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -122,18 +122,6 @@
     <t>EL-MSB-02-801 (CP)</t>
   </si>
   <si>
-    <t>Pre-energisation</t>
-  </si>
-  <si>
-    <t>wsa20-mpx-04000-el-itc-31052000 construction tests (pre-energisation)</t>
-  </si>
-  <si>
-    <t>Energised</t>
-  </si>
-  <si>
-    <t>wsa20-mpx-04000-el-itc-31053000 component (energised)</t>
-  </si>
-  <si>
     <t>Testing &amp; Commissioning</t>
   </si>
   <si>
@@ -381,6 +369,36 @@
   </si>
   <si>
     <t>Fuel Farm - UPS MDBs - UDB-21003 [FROM MSB-1A &amp; 1B]</t>
+  </si>
+  <si>
+    <t>Phase Rotation</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Pre-requisite Works</t>
+  </si>
+  <si>
+    <t>Insulation Resistance</t>
+  </si>
+  <si>
+    <t>Continuity Testing</t>
+  </si>
+  <si>
+    <t>Pre-Energisation &gt; Pre-requisite Works</t>
+  </si>
+  <si>
+    <t>Pre-Energisation &gt; Insulation Resistance</t>
+  </si>
+  <si>
+    <t>Pre-Energisation &gt; Continuity Testing</t>
+  </si>
+  <si>
+    <t>Energised &gt; Phase Rotation</t>
+  </si>
+  <si>
+    <t>Energised &gt; Voltage</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +725,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -870,9 +893,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1248,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6B34C8-2940-4F81-A223-085F545532F0}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,1037 +1327,1037 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -2342,19 +2366,43 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
+      <c r="C51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
+      <c r="C52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
